--- a/model/Outputs/2. No PV/Output Files/10/Output_10_37.xlsx
+++ b/model/Outputs/2. No PV/Output Files/10/Output_10_37.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2894436.62903772</v>
+        <v>2896166.6806224</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>342857.5917216506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Total Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>342857.5917216506</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>29348.32150215295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>29348.32150215295</v>
       </c>
     </row>
   </sheetData>
@@ -24624,10 +24664,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.99931295557451</v>
+        <v>66.99931295557451</v>
       </c>
       <c r="C29" t="n">
-        <v>33.47457824299391</v>
+        <v>34.47457824299391</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24642,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>19.02773927029563</v>
+        <v>20.02773927029563</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24678,22 +24718,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>113.6191915811053</v>
+        <v>114.6191915811053</v>
       </c>
       <c r="U29" t="n">
-        <v>228.5217529288726</v>
+        <v>229.5217529288726</v>
       </c>
       <c r="V29" t="n">
-        <v>213.8510241668239</v>
+        <v>214.8510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>222.3734759809475</v>
+        <v>223.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>176.2818334606677</v>
+        <v>177.2818334606677</v>
       </c>
       <c r="Y29" t="n">
-        <v>95.31743268280638</v>
+        <v>96.31743268280638</v>
       </c>
     </row>
     <row r="30">
@@ -24766,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>16.37314290982852</v>
+        <v>17.37314290982852</v>
       </c>
       <c r="X30" t="n">
-        <v>3.862739445387547</v>
+        <v>4.862739445387547</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24827,10 +24867,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>106.1821235684552</v>
+        <v>107.1821235684552</v>
       </c>
       <c r="R31" t="n">
-        <v>305.1956210454637</v>
+        <v>306.1956210454637</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25809,25 +25849,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.9993129555745</v>
+        <v>178.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>147.4745782429939</v>
+        <v>146.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>108.3391557398498</v>
+        <v>107.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>102.3632896068686</v>
+        <v>101.3632896068686</v>
       </c>
       <c r="F44" t="n">
-        <v>102.8896287080119</v>
+        <v>101.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>108.8327491714383</v>
+        <v>107.8327491714383</v>
       </c>
       <c r="H44" t="n">
-        <v>133.0277392702956</v>
+        <v>132.0277392702956</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25863,22 +25903,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>227.6191915811053</v>
+        <v>226.6191915811053</v>
       </c>
       <c r="U44" t="n">
-        <v>342.5217529288726</v>
+        <v>341.5217529288726</v>
       </c>
       <c r="V44" t="n">
-        <v>327.8510241668239</v>
+        <v>326.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>336.3734759809475</v>
+        <v>335.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>290.2818334606677</v>
+        <v>289.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>209.3174326828064</v>
+        <v>208.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -25888,25 +25928,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.55655664632661</v>
+        <v>81.55655664632661</v>
       </c>
       <c r="C45" t="n">
-        <v>59.09991244551929</v>
+        <v>58.09991244551929</v>
       </c>
       <c r="D45" t="n">
-        <v>45.93768689770263</v>
+        <v>44.93768689770263</v>
       </c>
       <c r="E45" t="n">
-        <v>40.67209722191262</v>
+        <v>39.67209722191262</v>
       </c>
       <c r="F45" t="n">
-        <v>37.63624233787687</v>
+        <v>36.63624233787687</v>
       </c>
       <c r="G45" t="n">
-        <v>27.52519625238585</v>
+        <v>26.52519625238585</v>
       </c>
       <c r="H45" t="n">
-        <v>43.22842014979517</v>
+        <v>42.22842014979517</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25936,28 +25976,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>51.67054165050009</v>
+        <v>50.67054165050009</v>
       </c>
       <c r="S45" t="n">
-        <v>38.140588939824</v>
+        <v>37.140588939824</v>
       </c>
       <c r="T45" t="n">
-        <v>86.53401876295709</v>
+        <v>85.53401876295709</v>
       </c>
       <c r="U45" t="n">
-        <v>97.68869740971195</v>
+        <v>96.68869740971195</v>
       </c>
       <c r="V45" t="n">
-        <v>112.5106671915202</v>
+        <v>111.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>130.3731429098285</v>
+        <v>129.3731429098285</v>
       </c>
       <c r="X45" t="n">
-        <v>117.8627394453875</v>
+        <v>116.8627394453875</v>
       </c>
       <c r="Y45" t="n">
-        <v>97.39139276613435</v>
+        <v>96.39139276613435</v>
       </c>
     </row>
     <row r="46">
@@ -26012,13 +26052,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>220.1821235684552</v>
+        <v>219.1821235684552</v>
       </c>
       <c r="R46" t="n">
-        <v>419.1956210454637</v>
+        <v>418.1956210454637</v>
       </c>
       <c r="S46" t="n">
-        <v>107.541226054864</v>
+        <v>106.541226054864</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26121,40 +26161,40 @@
         <v>955396.0321260714</v>
       </c>
       <c r="E2" t="n">
-        <v>938737.9016593837</v>
+        <v>938737.9016593838</v>
       </c>
       <c r="F2" t="n">
-        <v>958748.0428165477</v>
+        <v>958748.0428165476</v>
       </c>
       <c r="G2" t="n">
-        <v>959349.9008549105</v>
+        <v>959349.9008549106</v>
       </c>
       <c r="H2" t="n">
         <v>959349.9008549105</v>
       </c>
       <c r="I2" t="n">
-        <v>959349.9008549105</v>
+        <v>959349.9008549106</v>
       </c>
       <c r="J2" t="n">
-        <v>934889.844987635</v>
+        <v>934889.8449876352</v>
       </c>
       <c r="K2" t="n">
-        <v>962077.5897246227</v>
+        <v>961571.7997246225</v>
       </c>
       <c r="L2" t="n">
-        <v>969896.8330247514</v>
+        <v>969896.8330247513</v>
       </c>
       <c r="M2" t="n">
         <v>969896.8330247514</v>
       </c>
       <c r="N2" t="n">
-        <v>969896.8330247514</v>
+        <v>969896.8330247513</v>
       </c>
       <c r="O2" t="n">
-        <v>916492.334987635</v>
+        <v>916492.3349876349</v>
       </c>
       <c r="P2" t="n">
-        <v>838926.15105909</v>
+        <v>840347.3210590899</v>
       </c>
     </row>
     <row r="3">
@@ -26191,10 +26231,10 @@
         <v>280000</v>
       </c>
       <c r="K3" t="n">
-        <v>48000</v>
+        <v>47200</v>
       </c>
       <c r="L3" t="n">
-        <v>18400</v>
+        <v>19200</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26216,49 +26256,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516945.8081578696</v>
+        <v>516729.2344596348</v>
       </c>
       <c r="C4" t="n">
-        <v>515148.6571118427</v>
+        <v>514932.0834136077</v>
       </c>
       <c r="D4" t="n">
-        <v>513349.0681182514</v>
+        <v>513132.4944200165</v>
       </c>
       <c r="E4" t="n">
-        <v>501353.5207717809</v>
+        <v>501136.9470735459</v>
       </c>
       <c r="F4" t="n">
-        <v>511785.3207492395</v>
+        <v>511568.7470510048</v>
       </c>
       <c r="G4" t="n">
-        <v>510335.2279377221</v>
+        <v>510118.6542394872</v>
       </c>
       <c r="H4" t="n">
-        <v>508515.8234933802</v>
+        <v>508299.2497951454</v>
       </c>
       <c r="I4" t="n">
-        <v>506693.8791309034</v>
+        <v>506477.3054326685</v>
       </c>
       <c r="J4" t="n">
-        <v>490207.5969210622</v>
+        <v>489991.0232228274</v>
       </c>
       <c r="K4" t="n">
-        <v>504670.4690708233</v>
+        <v>504151.9865617157</v>
       </c>
       <c r="L4" t="n">
-        <v>507481.6130186809</v>
+        <v>507265.0393204461</v>
       </c>
       <c r="M4" t="n">
-        <v>505622.7549545127</v>
+        <v>505406.1812562778</v>
       </c>
       <c r="N4" t="n">
-        <v>503761.2241615489</v>
+        <v>503544.650463314</v>
       </c>
       <c r="O4" t="n">
-        <v>470558.0494079541</v>
+        <v>470341.4757097192</v>
       </c>
       <c r="P4" t="n">
-        <v>423504.888955901</v>
+        <v>424118.69410044</v>
       </c>
     </row>
     <row r="5">
@@ -26295,7 +26335,7 @@
         <v>32030.289</v>
       </c>
       <c r="K5" t="n">
-        <v>34972.704</v>
+        <v>34888.635</v>
       </c>
       <c r="L5" t="n">
         <v>36401.877</v>
@@ -26310,7 +26350,7 @@
         <v>30432.978</v>
       </c>
       <c r="P5" t="n">
-        <v>25388.838</v>
+        <v>25472.907</v>
       </c>
     </row>
     <row r="6">
@@ -26320,49 +26360,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400402.2789682018</v>
+        <v>400618.8526664367</v>
       </c>
       <c r="C6" t="n">
-        <v>406199.4300142288</v>
+        <v>406416.0037124637</v>
       </c>
       <c r="D6" t="n">
-        <v>407999.0190078201</v>
+        <v>408215.5927060549</v>
       </c>
       <c r="E6" t="n">
-        <v>101017.8158876028</v>
+        <v>101234.3895858378</v>
       </c>
       <c r="F6" t="n">
-        <v>392494.4320673082</v>
+        <v>392711.0057655428</v>
       </c>
       <c r="G6" t="n">
-        <v>409662.3139171884</v>
+        <v>409878.8876154234</v>
       </c>
       <c r="H6" t="n">
-        <v>416281.7183615303</v>
+        <v>416498.2920597651</v>
       </c>
       <c r="I6" t="n">
-        <v>418103.6627240071</v>
+        <v>418320.2364222421</v>
       </c>
       <c r="J6" t="n">
-        <v>132651.9590665728</v>
+        <v>132868.5327648078</v>
       </c>
       <c r="K6" t="n">
-        <v>374434.4166537994</v>
+        <v>375331.1781629068</v>
       </c>
       <c r="L6" t="n">
-        <v>407613.3430060705</v>
+        <v>407029.9167043052</v>
       </c>
       <c r="M6" t="n">
-        <v>427872.2010702387</v>
+        <v>428088.7747684736</v>
       </c>
       <c r="N6" t="n">
-        <v>429733.7318632025</v>
+        <v>429950.3055614373</v>
       </c>
       <c r="O6" t="n">
-        <v>192301.3075796809</v>
+        <v>192517.8812779157</v>
       </c>
       <c r="P6" t="n">
-        <v>390032.424103189</v>
+        <v>390755.7199586499</v>
       </c>
     </row>
   </sheetData>
@@ -26635,7 +26675,7 @@
         <v>381</v>
       </c>
       <c r="K2" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L2" t="n">
         <v>433</v>
@@ -26650,7 +26690,7 @@
         <v>362</v>
       </c>
       <c r="P2" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
@@ -26857,10 +26897,10 @@
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27094,7 +27134,7 @@
         <v>350</v>
       </c>
       <c r="P2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -29434,10 +29474,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557398498</v>
@@ -29452,7 +29492,7 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I29" t="n">
         <v>136.407413904614</v>
@@ -29488,22 +29528,22 @@
         <v>250.2973349495345</v>
       </c>
       <c r="T29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Y29" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30">
@@ -29576,10 +29616,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X30" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Y30" t="n">
         <v>399.3913927661343</v>
@@ -29637,10 +29677,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q31" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R31" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S31" t="n">
         <v>409.541226054864</v>
@@ -30619,25 +30659,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I44" t="n">
         <v>136.407413904614</v>
@@ -30673,22 +30713,22 @@
         <v>250.2973349495345</v>
       </c>
       <c r="T44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y44" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45">
@@ -30698,25 +30738,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I45" t="n">
         <v>81.62548565704105</v>
@@ -30746,28 +30786,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y45" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46">
@@ -30822,13 +30862,13 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q46" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R46" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S46" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T46" t="n">
         <v>223.1403870791274</v>

--- a/model/Outputs/2. No PV/Output Files/10/Output_10_37.xlsx
+++ b/model/Outputs/2. No PV/Output Files/10/Output_10_37.xlsx
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net demand" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net surplus" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unmet Demand" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Household Surplus" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +542,26 @@
       </c>
       <c r="B10" t="n">
         <v>29348.32150215295</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>VoLL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Household Surplus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>406557.0661305066</v>
       </c>
     </row>
   </sheetData>
@@ -26084,6 +26105,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>surplus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8745.205164869429</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16961.46081405344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25177.71646323743</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33529.88823141514</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41718.24527600103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>49901.5955919662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>58084.94590793138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>66268.29622389656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>74650.68165576758</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>82815.71345155954</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90908.06740617432</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99000.42136078904</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>107092.7753154038</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>115619.3707472747</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>124704.6267054912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
